--- a/plantilla-para-analisis-comprension-de-textos-4-dimensiones-3-indicadores-24-preguntas-indices-0-1.xlsx
+++ b/plantilla-para-analisis-comprension-de-textos-4-dimensiones-3-indicadores-24-preguntas-indices-0-1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Datos/sucerman/Documents/github/seminario-analisis-informacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo\Documents\GitHub\seminario-analisis-informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pretest" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Comparación de Medias" sheetId="4" r:id="rId5"/>
     <sheet name="T-student" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="106">
   <si>
     <t>TOTAL PRUEBA</t>
   </si>
@@ -333,12 +333,27 @@
   <si>
     <t>% Indicador</t>
   </si>
+  <si>
+    <t>DIMENSIÓN-1</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-2</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-3</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-4</t>
+  </si>
+  <si>
+    <t>Total Prueba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,6 +428,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -458,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -538,92 +566,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -723,6 +671,17 @@
     <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,70 +709,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,9 +815,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -962,7 +867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -988,7 +892,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1090,7 +994,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1102,7 +1006,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1145,17 +1048,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.616666666666667</c:v>
+                  <c:v>0.6166666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F26A-4E84-9A52-E97A63FD8110}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1209,7 +1117,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1221,7 +1129,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1264,17 +1171,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F26A-4E84-9A52-E97A63FD8110}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1325,7 +1237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007178368"/>
@@ -1382,7 +1294,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1408,7 +1319,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1440,7 +1351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007181808"/>
@@ -1482,7 +1393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1520,7 +1431,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1532,9 +1443,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1584,7 +1495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1610,7 +1520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1700,7 +1610,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1710,9 +1620,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1758,15 +1667,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F1E-4E11-B5BE-1C22936318BB}"/>
             </c:ext>
@@ -1827,7 +1736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006419872"/>
@@ -1886,7 +1795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006479168"/>
@@ -1927,7 +1836,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1939,9 +1848,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1983,7 +1892,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2009,7 +1917,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2099,7 +2007,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2109,9 +2017,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2154,18 +2061,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DAC-4302-B9E5-0BA080AC2532}"/>
             </c:ext>
@@ -2226,7 +2133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006374176"/>
@@ -2285,7 +2192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006377488"/>
@@ -2326,7 +2233,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2338,9 +2245,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2377,7 +2284,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2403,7 +2309,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2493,7 +2399,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2503,9 +2409,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2548,18 +2453,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0333333333333333</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B256-4BAF-9EDF-C26B937B25BA}"/>
             </c:ext>
@@ -2620,7 +2525,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006328960"/>
@@ -2679,7 +2584,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006332272"/>
@@ -2720,7 +2625,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2732,9 +2637,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2776,7 +2681,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2802,7 +2706,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2904,7 +2808,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2914,9 +2818,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2959,18 +2862,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0333333333333333</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-075E-4831-8285-A95B3D61C5A5}"/>
             </c:ext>
@@ -3025,7 +2928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007718448"/>
@@ -3084,7 +2987,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006993776"/>
@@ -3125,7 +3028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3137,9 +3040,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3176,7 +3079,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3202,7 +3104,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3304,7 +3206,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3314,9 +3216,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3359,18 +3260,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63FB-4A9E-B427-22DF6AB4ACBB}"/>
             </c:ext>
@@ -3425,7 +3326,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2016974640"/>
@@ -3484,7 +3385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2016779568"/>
@@ -3525,7 +3426,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3537,9 +3438,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3581,7 +3482,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3607,7 +3507,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3709,7 +3609,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3721,7 +3621,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3767,14 +3666,19 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEC8-4AE0-99EE-C62BC7D1534D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3828,7 +3732,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3840,7 +3744,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3883,17 +3786,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28</c:v>
+                  <c:v>0.51851851851851849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEC8-4AE0-99EE-C62BC7D1534D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3944,7 +3852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007288336"/>
@@ -4001,7 +3909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4027,7 +3934,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4059,7 +3966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007289744"/>
@@ -4101,7 +4008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4139,7 +4046,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4151,9 +4058,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4195,7 +4102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4221,7 +4127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4320,7 +4226,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4332,7 +4238,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4375,17 +4280,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFA1-47B6-8DAC-F8495DAE0C61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4439,7 +4349,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4451,7 +4361,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4497,14 +4406,19 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFA1-47B6-8DAC-F8495DAE0C61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4555,7 +4469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007018240"/>
@@ -4612,7 +4526,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4638,7 +4551,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4670,7 +4583,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007017328"/>
@@ -4712,7 +4625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4750,7 +4663,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4762,9 +4675,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4806,7 +4719,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4832,7 +4744,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4934,7 +4846,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4946,7 +4858,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4992,14 +4903,19 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2912-4CC7-881D-1CE5FB68BDB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5053,7 +4969,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5065,7 +4981,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5111,14 +5026,19 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.23333333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2912-4CC7-881D-1CE5FB68BDB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5169,7 +5089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007755648"/>
@@ -5226,7 +5146,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5252,7 +5171,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5284,7 +5203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007754224"/>
@@ -5326,7 +5245,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5364,7 +5283,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5376,9 +5295,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5420,7 +5339,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5446,7 +5364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5548,7 +5466,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5560,7 +5478,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5603,17 +5520,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4309-47C3-8326-5A17C964C671}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5667,7 +5589,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5679,7 +5601,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5722,17 +5643,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0333333333333333</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4309-47C3-8326-5A17C964C671}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5783,7 +5709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2016636800"/>
@@ -5840,7 +5766,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5866,7 +5791,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5898,7 +5823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2016641888"/>
@@ -5940,7 +5865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5978,7 +5903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5990,9 +5915,9 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6034,7 +5959,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6060,7 +5984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6162,7 +6086,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6174,7 +6098,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6217,17 +6140,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0333333333333333</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1E9-438A-9667-60A9C7637AF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6281,7 +6209,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6293,7 +6221,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6336,17 +6263,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1E9-438A-9667-60A9C7637AF4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6397,7 +6329,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007853104"/>
@@ -6454,7 +6386,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6480,7 +6411,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6512,7 +6443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007849552"/>
@@ -6554,7 +6485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6592,7 +6523,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6604,9 +6535,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6652,7 +6583,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6678,7 +6608,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6780,7 +6710,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6792,7 +6722,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6835,17 +6764,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.516666666666667</c:v>
+                  <c:v>0.51666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39DD-4F36-885C-ABA6DED8EF78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6899,7 +6833,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6911,7 +6845,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6954,17 +6887,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.6333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39DD-4F36-885C-ABA6DED8EF78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7015,7 +6953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2008181248"/>
@@ -7072,7 +7010,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7098,7 +7035,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7130,7 +7067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006520976"/>
@@ -7172,7 +7109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7210,7 +7147,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7222,9 +7159,9 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7266,7 +7203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7292,7 +7228,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7359,94 +7295,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7458,100 +7394,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68B0-4F8D-91BB-1E42AA626C01}"/>
             </c:ext>
@@ -7614,94 +7550,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7713,100 +7649,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-68B0-4F8D-91BB-1E42AA626C01}"/>
             </c:ext>
@@ -7878,7 +7814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2016598496"/>
@@ -7940,7 +7876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2016601760"/>
@@ -7957,7 +7893,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7983,7 +7918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8013,7 +7948,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8025,9 +7960,9 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8069,7 +8004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8095,7 +8029,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8162,94 +8096,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8261,100 +8195,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DA49-4B85-AC7B-A22D88FD729B}"/>
             </c:ext>
@@ -8417,94 +8351,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8516,100 +8450,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA49-4B85-AC7B-A22D88FD729B}"/>
             </c:ext>
@@ -8681,7 +8615,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2018530800"/>
@@ -8743,7 +8677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2018534144"/>
@@ -8760,7 +8694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8786,7 +8719,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8816,7 +8749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8828,9 +8761,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8872,7 +8805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8898,7 +8830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9000,7 +8932,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9012,7 +8944,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9066,6 +8997,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1A4-4FE0-B86D-C2DECCF0F0D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9119,7 +9055,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9131,7 +9067,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9174,17 +9109,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1A4-4FE0-B86D-C2DECCF0F0D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9235,7 +9175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007135584"/>
@@ -9292,7 +9232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9318,7 +9257,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9350,7 +9289,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007139024"/>
@@ -9392,7 +9331,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9430,7 +9369,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9442,9 +9381,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9511,7 +9450,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9613,7 +9552,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9670,14 +9609,19 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.383333333333333</c:v>
+                  <c:v>0.3833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0352-4D03-AD8C-F952AA49C96E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9731,7 +9675,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9785,17 +9729,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.516666666666667</c:v>
+                  <c:v>0.51666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0352-4D03-AD8C-F952AA49C96E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9846,7 +9795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007091840"/>
@@ -9928,7 +9877,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9960,7 +9909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007095280"/>
@@ -10002,7 +9951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10040,7 +9989,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10052,9 +10001,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10104,7 +10053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10130,7 +10078,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10196,55 +10144,46 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0DB3-4AFC-AFA6-41690D9924F4}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0DB3-4AFC-AFA6-41690D9924F4}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0DB3-4AFC-AFA6-41690D9924F4}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10274,7 +10213,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10283,7 +10222,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10330,15 +10269,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0DB3-4AFC-AFA6-41690D9924F4}"/>
             </c:ext>
@@ -10399,7 +10338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086612880"/>
@@ -10458,7 +10397,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086606848"/>
@@ -10499,7 +10438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10511,9 +10450,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10555,7 +10494,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10581,7 +10519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10671,7 +10609,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10681,9 +10619,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10726,18 +10663,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28</c:v>
+                  <c:v>0.51851851851851849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B54E-48F3-B911-4872FEDC1494}"/>
             </c:ext>
@@ -10798,7 +10735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007054320"/>
@@ -10857,7 +10794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2007062032"/>
@@ -10898,7 +10835,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10910,9 +10847,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10958,7 +10895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10984,7 +10920,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11074,7 +11010,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11084,9 +11020,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11129,18 +11064,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2BFE-4470-9C6B-2D4CB1998835}"/>
             </c:ext>
@@ -11201,7 +11136,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006456576"/>
@@ -11260,7 +11195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006459808"/>
@@ -11301,7 +11236,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11313,9 +11248,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11365,7 +11300,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11391,7 +11325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11481,7 +11415,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11491,9 +11425,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11539,15 +11472,15 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E1B-49D9-A5AB-7E7CA6521BB1}"/>
             </c:ext>
@@ -11608,7 +11541,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006560736"/>
@@ -11667,7 +11600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006561584"/>
@@ -11708,7 +11641,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11720,9 +11653,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11764,7 +11697,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11790,7 +11722,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11880,7 +11812,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11890,9 +11822,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11938,15 +11869,15 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CA2B-4A83-B11C-8EDE93B90F80}"/>
             </c:ext>
@@ -12007,7 +11938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006406752"/>
@@ -12066,7 +11997,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2006410064"/>
@@ -12107,7 +12038,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23465,7 +23396,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23495,7 +23432,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23525,7 +23468,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23555,7 +23504,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23593,7 +23548,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23629,7 +23584,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23665,7 +23620,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23701,7 +23656,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23737,7 +23692,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23773,7 +23728,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23809,7 +23764,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23845,7 +23800,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23881,7 +23836,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C60FEBB-1128-40F0-80C3-0A870DCF4D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23917,7 +23872,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811EC65F-EA02-4407-B17A-A26F938CD13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23950,7 +23905,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23980,7 +23941,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -24010,7 +23977,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -24040,7 +24013,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -24070,7 +24049,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -24092,23 +24077,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24133,23 +24118,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24432,165 +24417,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="34" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" style="34" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="12.875" style="34" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.625" style="34" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" style="34" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" style="34"/>
+    <col min="36" max="36" width="10.875" style="34"/>
     <col min="37" max="37" width="13.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.875" style="34" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6.5" style="34" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="4.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="10.83203125" style="34"/>
+    <col min="41" max="41" width="5.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="10.875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="72" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="59" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="67" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="60" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="62"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="63" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="63" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="64"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="65" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="66"/>
-      <c r="V2" s="65" t="s">
+      <c r="U2" s="75"/>
+      <c r="V2" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="66"/>
+      <c r="W2" s="75"/>
       <c r="X2" s="37"/>
       <c r="Y2" s="37"/>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="61" t="s">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="61" t="s">
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="62"/>
+      <c r="AE2" s="71"/>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -24690,8 +24675,8 @@
       <c r="AG3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
       <c r="AK3" s="33" t="s">
         <v>11</v>
       </c>
@@ -24708,7 +24693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>1</v>
       </c>
@@ -24735,7 +24720,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="40" t="str">
-        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;4),"medio",IF(AND(H4&gt;=4,H4&lt;=6),"alto")))</f>
+        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;=4),"medio",IF(AND(H4&gt;4,H4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="J4" s="39">
@@ -24761,7 +24746,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="41" t="str">
-        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;4),"medio",IF(AND(P4&gt;=4,P4&lt;=6),"alto")))</f>
+        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;=4),"medio",IF(AND(P4&gt;4,P4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="R4" s="39">
@@ -24787,7 +24772,7 @@
         <v>6</v>
       </c>
       <c r="Y4" s="42" t="str">
-        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;4),"medio",IF(AND(X4&gt;=4,X4&lt;=6),"alto")))</f>
+        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;=4),"medio",IF(AND(X4&gt;4,X4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Z4" s="39">
@@ -24813,7 +24798,7 @@
         <v>6</v>
       </c>
       <c r="AG4" s="40" t="str">
-        <f>IF(AND(AF4&gt;=0,AF4&lt;2),"bajo",IF(AND(AF4&gt;=2,AF4&lt;4),"medio",IF(AND(AF4&gt;=4,AF4&lt;=6),"alto")))</f>
+        <f>IF(AND(AF4&gt;=0,AF4&lt;2),"bajo",IF(AND(AF4&gt;=2,AF4&lt;=4),"medio",IF(AND(AF4&gt;4,AF4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="AH4" s="43">
@@ -24821,7 +24806,7 @@
         <v>24</v>
       </c>
       <c r="AI4" s="43" t="str">
-        <f>IF(AND(AH4&gt;=0,AH4&lt;8),"bajo",IF(AND(AH4&gt;=8,AH4&lt;16),"medio",IF(AND(AH4&gt;=16,AH4&lt;=24),"alto")))</f>
+        <f>IF(AND(AH4&gt;=0,AH4&lt;8),"bajo",IF(AND(AH4&gt;=8,AH4&lt;=16),"medio",IF(AND(AH4&gt;16,AH4&lt;=24),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="AK4" s="40" t="s">
@@ -24833,18 +24818,18 @@
       </c>
       <c r="AM4" s="40">
         <f>COUNTIF(I4:I33,"medio")</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AN4" s="40">
         <f>COUNTIF(I4:I33,"alto")</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO4" s="40">
         <f>SUM(AL4:AN4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2</v>
       </c>
@@ -24871,7 +24856,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="40" t="str">
-        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;4),"medio",IF(AND(H5&gt;=4,H5&lt;=6),"alto")))</f>
+        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;=4),"medio",IF(AND(H5&gt;4,H5&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="J5" s="39">
@@ -24897,7 +24882,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="41" t="str">
-        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;4),"medio",IF(AND(P5&gt;=4,P5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;=4),"medio",IF(AND(P5&gt;4,P5&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="R5" s="39">
@@ -24923,7 +24908,7 @@
         <v>3</v>
       </c>
       <c r="Y5" s="42" t="str">
-        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;4),"medio",IF(AND(X5&gt;=4,X5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;=4),"medio",IF(AND(X5&gt;4,X5&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="Z5" s="39">
@@ -24949,7 +24934,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="40" t="str">
-        <f t="shared" ref="AG5:AG33" si="7">IF(AND(AF5&gt;=0,AF5&lt;2),"bajo",IF(AND(AF5&gt;=2,AF5&lt;4),"medio",IF(AND(AF5&gt;=4,AF5&lt;=6),"alto")))</f>
+        <f t="shared" ref="AG5:AG33" si="7">IF(AND(AF5&gt;=0,AF5&lt;2),"bajo",IF(AND(AF5&gt;=2,AF5&lt;=4),"medio",IF(AND(AF5&gt;4,AF5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="AH5" s="43">
@@ -24957,7 +24942,7 @@
         <v>9</v>
       </c>
       <c r="AI5" s="43" t="str">
-        <f t="shared" ref="AI5:AI33" si="9">IF(AND(AH5&gt;=0,AH5&lt;8),"bajo",IF(AND(AH5&gt;=8,AH5&lt;16),"medio",IF(AND(AH5&gt;=16,AH5&lt;=24),"alto")))</f>
+        <f t="shared" ref="AI5:AI33" si="9">IF(AND(AH5&gt;=0,AH5&lt;8),"bajo",IF(AND(AH5&gt;=8,AH5&lt;=16),"medio",IF(AND(AH5&gt;16,AH5&lt;=24),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="AK5" s="41" t="s">
@@ -24969,18 +24954,18 @@
       </c>
       <c r="AM5" s="41">
         <f>COUNTIF(Q4:Q33,"medio")</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AN5" s="41">
         <f>COUNTIF(Q4:Q33,"alto")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AO5" s="41">
         <f>SUM(AO4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>3</v>
       </c>
@@ -25105,18 +25090,18 @@
       </c>
       <c r="AM6" s="42">
         <f>COUNTIF(Y4:Y33,"medio")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AN6" s="42">
         <f>COUNTIF(Y4:Y33,"alto")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="42">
         <f>SUM(AL6:AN6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>4</v>
       </c>
@@ -25170,7 +25155,7 @@
       </c>
       <c r="Q7" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R7" s="39">
         <v>0</v>
@@ -25241,11 +25226,11 @@
       </c>
       <c r="AM7" s="40">
         <f>COUNTIF(AG4:AG33,"medio")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AN7" s="40">
         <f>COUNTIF(AG4:AG33,"alto")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO7" s="40">
         <f>SUM(AL7:AN7)</f>
@@ -25332,7 +25317,7 @@
       </c>
       <c r="Y8" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z8" s="39">
         <v>1</v>
@@ -25358,7 +25343,7 @@
       </c>
       <c r="AG8" s="40" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH8" s="43">
         <f t="shared" si="8"/>
@@ -25650,7 +25635,7 @@
       </c>
       <c r="I11" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J11" s="39">
         <v>1</v>
@@ -25793,7 +25778,7 @@
       </c>
       <c r="Q12" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R12" s="39">
         <v>0</v>
@@ -26027,7 +26012,7 @@
       </c>
       <c r="Q14" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R14" s="39">
         <v>1</v>
@@ -26170,7 +26155,7 @@
       </c>
       <c r="Y15" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z15" s="39">
         <v>0</v>
@@ -26404,7 +26389,7 @@
       </c>
       <c r="Y17" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z17" s="39">
         <v>0</v>
@@ -26495,7 +26480,7 @@
       </c>
       <c r="Q18" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R18" s="39">
         <v>1</v>
@@ -26586,7 +26571,7 @@
       </c>
       <c r="I19" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J19" s="39">
         <v>0</v>
@@ -26612,7 +26597,7 @@
       </c>
       <c r="Q19" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R19" s="39">
         <v>0</v>
@@ -26729,7 +26714,7 @@
       </c>
       <c r="Q20" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R20" s="39">
         <v>0</v>
@@ -27015,7 +27000,7 @@
       </c>
       <c r="AG22" s="40" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH22" s="43">
         <f t="shared" si="8"/>
@@ -27054,7 +27039,7 @@
       </c>
       <c r="I23" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J23" s="39">
         <v>0</v>
@@ -27249,7 +27234,7 @@
       </c>
       <c r="AG24" s="40" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH24" s="43">
         <f t="shared" si="8"/>
@@ -27405,7 +27390,7 @@
       </c>
       <c r="I26" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J26" s="39">
         <v>0</v>
@@ -27611,7 +27596,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>25</v>
       </c>
@@ -27639,7 +27624,7 @@
       </c>
       <c r="I28" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J28" s="39">
         <v>1</v>
@@ -27728,7 +27713,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>26</v>
       </c>
@@ -27845,7 +27830,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>27</v>
       </c>
@@ -27962,7 +27947,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>28</v>
       </c>
@@ -28042,7 +28027,7 @@
       </c>
       <c r="Y31" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z31" s="39">
         <v>0</v>
@@ -28079,7 +28064,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>29</v>
       </c>
@@ -28196,7 +28181,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>30</v>
       </c>
@@ -28250,7 +28235,7 @@
       </c>
       <c r="Q33" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R33" s="39">
         <v>0</v>
@@ -28313,7 +28298,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>3</v>
       </c>
@@ -28341,8 +28326,11 @@
         <f>SUM(G4:G33)</f>
         <v>18</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
+      <c r="H34" s="45">
+        <f>SUM(H4:H33)</f>
+        <v>95</v>
+      </c>
+      <c r="I34" s="60"/>
       <c r="J34" s="46">
         <f t="shared" ref="J34:O34" si="11">SUM(J4:J33)</f>
         <v>16</v>
@@ -28367,8 +28355,11 @@
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="80"/>
+      <c r="P34" s="46">
+        <f>SUM(P4:P33)</f>
+        <v>93</v>
+      </c>
+      <c r="Q34" s="61"/>
       <c r="R34" s="47">
         <f>SUM(R4:R33)</f>
         <v>10</v>
@@ -28393,8 +28384,11 @@
         <f>SUM(W4:W33)</f>
         <v>12</v>
       </c>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="80"/>
+      <c r="X34" s="47">
+        <f>SUM(X4:X33)</f>
+        <v>75</v>
+      </c>
+      <c r="Y34" s="61"/>
       <c r="Z34" s="45">
         <f>SUM(Z4:Z33)</f>
         <v>14</v>
@@ -28419,21 +28413,27 @@
         <f>SUM(AE4:AE33)</f>
         <v>12</v>
       </c>
-      <c r="AF34" s="73"/>
-      <c r="AG34" s="85"/>
-      <c r="AH34" s="85"/>
-      <c r="AI34" s="74"/>
+      <c r="AF34" s="45">
+        <f>SUM(AF4:AF33)</f>
+        <v>78</v>
+      </c>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="59">
+        <f>SUM(AH4:AH33)</f>
+        <v>341</v>
+      </c>
+      <c r="AI34" s="60"/>
     </row>
-    <row r="35" spans="1:35" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
         <v>99</v>
       </c>
       <c r="B35" s="54">
-        <f>B34/$A$33</f>
+        <f t="shared" ref="B35:G35" si="14">B34/30</f>
         <v>0.6</v>
       </c>
       <c r="C35" s="54">
-        <f t="shared" ref="C35:G35" si="14">C34/$A$33</f>
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D35" s="54">
@@ -28452,10 +28452,13 @@
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="54">
+        <f>H34/(30*6)</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I35" s="60"/>
       <c r="J35" s="56">
-        <f t="shared" ref="J35:O35" si="15">J34/$A$33</f>
+        <f t="shared" ref="J35:O35" si="15">J34/30</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="K35" s="56">
@@ -28478,10 +28481,13 @@
         <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="82"/>
+      <c r="P35" s="56">
+        <f>P34/(30*6)</f>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="Q35" s="61"/>
       <c r="R35" s="57">
-        <f t="shared" ref="R35:W35" si="16">R34/$A$33</f>
+        <f t="shared" ref="R35:W35" si="16">R34/30</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="S35" s="57">
@@ -28504,10 +28510,13 @@
         <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="82"/>
+      <c r="X35" s="57">
+        <f>X34/(30*6)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Y35" s="61"/>
       <c r="Z35" s="54">
-        <f t="shared" ref="Z35:AE35" si="17">Z34/$A$33</f>
+        <f t="shared" ref="Z35:AE35" si="17">Z34/30</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="AA35" s="54">
@@ -28530,90 +28539,94 @@
         <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="86"/>
-      <c r="AH35" s="86"/>
-      <c r="AI35" s="76"/>
+      <c r="AF35" s="54">
+        <f>AF34/(30*6)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="62">
+        <f>AH34/(30*24)</f>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="AI35" s="60"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="77">
         <f>(B35+C35)/2</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="68">
+      <c r="C36" s="77"/>
+      <c r="D36" s="77">
         <f>(D35+E35)/2</f>
         <v>0.5</v>
       </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="68">
+      <c r="E36" s="77"/>
+      <c r="F36" s="77">
         <f>(F35+G35)/2</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="70">
+      <c r="G36" s="77"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="78">
         <f>(J35+K35)/2</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="70">
+      <c r="K36" s="78"/>
+      <c r="L36" s="78">
         <f>(L35+M35)/2</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="M36" s="71"/>
-      <c r="N36" s="70">
+      <c r="M36" s="78"/>
+      <c r="N36" s="78">
         <f>(N35+O35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="O36" s="71"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="88">
+      <c r="O36" s="78"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="80">
         <f>(R35+S35)/2</f>
         <v>0.35</v>
       </c>
-      <c r="S36" s="89"/>
-      <c r="T36" s="88">
+      <c r="S36" s="80"/>
+      <c r="T36" s="80">
         <f>(T35+U35)/2</f>
         <v>0.45</v>
       </c>
-      <c r="U36" s="89"/>
-      <c r="V36" s="88">
+      <c r="U36" s="80"/>
+      <c r="V36" s="80">
         <f>(V35+W35)/2</f>
         <v>0.45</v>
       </c>
-      <c r="W36" s="89"/>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="68">
+      <c r="W36" s="80"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="77">
         <f>(Z35+AA35)/2</f>
         <v>0.45</v>
       </c>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="68">
+      <c r="AA36" s="77"/>
+      <c r="AB36" s="77">
         <f>(AB35+AC35)/2</f>
         <v>0.3833333333333333</v>
       </c>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="68">
+      <c r="AC36" s="77"/>
+      <c r="AD36" s="77">
         <f>(AD35+AE35)/2</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="87"/>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="78"/>
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="X34:Y36"/>
-    <mergeCell ref="AF34:AI36"/>
+  <mergeCells count="30">
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
@@ -28628,8 +28641,6 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="P34:Q36"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="AH1:AH3"/>
     <mergeCell ref="AI1:AI3"/>
@@ -28648,169 +28659,170 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" style="23" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="12.875" style="23" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.625" style="23" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" style="23"/>
+    <col min="36" max="36" width="10.875" style="23"/>
     <col min="37" max="37" width="13.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.875" style="23" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6.5" style="23" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="4.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="10.83203125" style="23"/>
+    <col min="41" max="41" width="5.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="10.875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96" t="s">
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="93" t="s">
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="90" t="s">
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="97" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="97" t="s">
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="98"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="99" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="99" t="s">
+      <c r="M2" s="91"/>
+      <c r="N2" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="100"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="102"/>
-      <c r="T2" s="101" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="101" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="102"/>
+      <c r="W2" s="93"/>
       <c r="X2" s="26"/>
       <c r="Y2" s="26"/>
-      <c r="Z2" s="91" t="s">
+      <c r="Z2" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="91" t="s">
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="91" t="s">
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="92"/>
+      <c r="AE2" s="83"/>
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -28910,8 +28922,8 @@
       <c r="AG3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
       <c r="AK3" s="22" t="s">
         <v>83</v>
       </c>
@@ -28928,7 +28940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -28955,7 +28967,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="29" t="str">
-        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;4),"medio",IF(AND(H4&gt;=4,H4&lt;=6),"alto")))</f>
+        <f>IF(AND(H4&gt;=0,H4&lt;2),"bajo",IF(AND(H4&gt;=2,H4&lt;=4),"medio",IF(AND(H4&gt;4,H4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="J4" s="1">
@@ -28981,7 +28993,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="30" t="str">
-        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;4),"medio",IF(AND(P4&gt;=4,P4&lt;=6),"alto")))</f>
+        <f>IF(AND(P4&gt;=0,P4&lt;2),"bajo",IF(AND(P4&gt;=2,P4&lt;=4),"medio",IF(AND(P4&gt;4,P4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="R4" s="28">
@@ -29007,7 +29019,7 @@
         <v>6</v>
       </c>
       <c r="Y4" s="31" t="str">
-        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;4),"medio",IF(AND(X4&gt;=4,X4&lt;=6),"alto")))</f>
+        <f>IF(AND(X4&gt;=0,X4&lt;2),"bajo",IF(AND(X4&gt;=2,X4&lt;=4),"medio",IF(AND(X4&gt;4,X4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Z4" s="1">
@@ -29033,7 +29045,7 @@
         <v>6</v>
       </c>
       <c r="AG4" s="2" t="str">
-        <f>IF(AND(AF4&gt;=0,AF4&lt;2),"bajo",IF(AND(AF4&gt;=2,AF4&lt;4),"medio",IF(AND(AF4&gt;=4,AF4&lt;=6),"alto")))</f>
+        <f>IF(AND(AF4&gt;=0,AF4&lt;2),"bajo",IF(AND(AF4&gt;=2,AF4&lt;=4),"medio",IF(AND(AF4&gt;4,AF4&lt;=6),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="AH4" s="32">
@@ -29041,7 +29053,7 @@
         <v>24</v>
       </c>
       <c r="AI4" s="32" t="str">
-        <f>IF(AND(AH4&gt;=0,AH4&lt;8),"bajo",IF(AND(AH4&gt;=8,AH4&lt;16),"medio",IF(AND(AH4&gt;=16,AH4&lt;=24),"alto")))</f>
+        <f>IF(AND(AH4&gt;=0,AH4&lt;8),"bajo",IF(AND(AH4&gt;=8,AH4&lt;=16),"medio",IF(AND(AH4&gt;16,AH4&lt;=24),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="AK4" s="29" t="s">
@@ -29053,18 +29065,18 @@
       </c>
       <c r="AM4" s="29">
         <f>COUNTIF(I4:I33,"medio")</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AN4" s="29">
         <f>COUNTIF(I4:I33,"alto")</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AO4" s="29">
         <f>SUM(AL4:AN4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>2</v>
       </c>
@@ -29091,7 +29103,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="29" t="str">
-        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;4),"medio",IF(AND(H5&gt;=4,H5&lt;=6),"alto")))</f>
+        <f t="shared" ref="I5:I33" si="1">IF(AND(H5&gt;=0,H5&lt;2),"bajo",IF(AND(H5&gt;=2,H5&lt;=4),"medio",IF(AND(H5&gt;4,H5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="J5" s="1">
@@ -29117,7 +29129,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="30" t="str">
-        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;4),"medio",IF(AND(P5&gt;=4,P5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Q5:Q33" si="3">IF(AND(P5&gt;=0,P5&lt;2),"bajo",IF(AND(P5&gt;=2,P5&lt;=4),"medio",IF(AND(P5&gt;4,P5&lt;=6),"alto")))</f>
         <v>bajo</v>
       </c>
       <c r="R5" s="28">
@@ -29143,7 +29155,7 @@
         <v>3</v>
       </c>
       <c r="Y5" s="31" t="str">
-        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;4),"medio",IF(AND(X5&gt;=4,X5&lt;=6),"alto")))</f>
+        <f t="shared" ref="Y5:Y33" si="5">IF(AND(X5&gt;=0,X5&lt;2),"bajo",IF(AND(X5&gt;=2,X5&lt;=4),"medio",IF(AND(X5&gt;4,X5&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="Z5" s="1">
@@ -29169,7 +29181,7 @@
         <v>3</v>
       </c>
       <c r="AG5" s="2" t="str">
-        <f t="shared" ref="AG5:AG33" si="7">IF(AND(AF5&gt;=0,AF5&lt;2),"bajo",IF(AND(AF5&gt;=2,AF5&lt;4),"medio",IF(AND(AF5&gt;=4,AF5&lt;=6),"alto")))</f>
+        <f t="shared" ref="AG5:AG33" si="7">IF(AND(AF5&gt;=0,AF5&lt;2),"bajo",IF(AND(AF5&gt;=2,AF5&lt;=4),"medio",IF(AND(AF5&gt;4,AF5&lt;=6),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="AH5" s="32">
@@ -29177,7 +29189,7 @@
         <v>8</v>
       </c>
       <c r="AI5" s="32" t="str">
-        <f t="shared" ref="AI5:AI33" si="9">IF(AND(AH5&gt;=0,AH5&lt;8),"bajo",IF(AND(AH5&gt;=8,AH5&lt;16),"medio",IF(AND(AH5&gt;=16,AH5&lt;=24),"alto")))</f>
+        <f t="shared" ref="AI5:AI33" si="9">IF(AND(AH5&gt;=0,AH5&lt;8),"bajo",IF(AND(AH5&gt;=8,AH5&lt;=16),"medio",IF(AND(AH5&gt;16,AH5&lt;=24),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="AK5" s="30" t="s">
@@ -29189,18 +29201,18 @@
       </c>
       <c r="AM5" s="30">
         <f>COUNTIF(Q4:Q33,"medio")</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AN5" s="30">
         <f>COUNTIF(Q4:Q33,"alto")</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AO5" s="30">
         <f>SUM(AO4)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>3</v>
       </c>
@@ -29325,18 +29337,18 @@
       </c>
       <c r="AM6" s="31">
         <f>COUNTIF(Y4:Y33,"medio")</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AN6" s="31">
         <f>COUNTIF(Y4:Y33,"alto")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AO6" s="31">
         <f>SUM(AL6:AN6)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>4</v>
       </c>
@@ -29461,11 +29473,11 @@
       </c>
       <c r="AM7" s="29">
         <f>COUNTIF(AG4:AG33,"medio")</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AN7" s="29">
         <f>COUNTIF(AG4:AG33,"alto")</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AO7" s="29">
         <f>SUM(AL7:AN7)</f>
@@ -29500,7 +29512,7 @@
       </c>
       <c r="I8" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -29526,7 +29538,7 @@
       </c>
       <c r="Q8" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R8" s="28">
         <v>1</v>
@@ -29597,11 +29609,11 @@
       </c>
       <c r="AM8" s="32">
         <f>COUNTIF(AI4:AI33,"medio")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN8" s="32">
         <f>COUNTIF(AI4:AI33,"alto")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO8" s="32">
         <f>SUM(AL8:AN8)</f>
@@ -29688,7 +29700,7 @@
       </c>
       <c r="Y9" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z9" s="1">
         <v>1</v>
@@ -29870,7 +29882,7 @@
       </c>
       <c r="I11" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -29922,7 +29934,7 @@
       </c>
       <c r="Y11" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -30065,7 +30077,7 @@
       </c>
       <c r="AG12" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH12" s="32">
         <f t="shared" si="8"/>
@@ -30247,7 +30259,7 @@
       </c>
       <c r="Q14" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R14" s="28">
         <v>1</v>
@@ -30299,7 +30311,7 @@
       </c>
       <c r="AG14" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH14" s="32">
         <f t="shared" si="8"/>
@@ -30307,7 +30319,7 @@
       </c>
       <c r="AI14" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -30364,7 +30376,7 @@
       </c>
       <c r="Q15" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R15" s="28">
         <v>1</v>
@@ -30390,7 +30402,7 @@
       </c>
       <c r="Y15" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z15" s="1">
         <v>1</v>
@@ -30455,7 +30467,7 @@
       </c>
       <c r="I16" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -30507,7 +30519,7 @@
       </c>
       <c r="Y16" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
@@ -30533,7 +30545,7 @@
       </c>
       <c r="AG16" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH16" s="32">
         <f t="shared" si="8"/>
@@ -30572,7 +30584,7 @@
       </c>
       <c r="I17" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -30741,7 +30753,7 @@
       </c>
       <c r="Y18" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z18" s="1">
         <v>1</v>
@@ -30858,7 +30870,7 @@
       </c>
       <c r="Y19" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -30884,7 +30896,7 @@
       </c>
       <c r="AG19" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH19" s="32">
         <f t="shared" si="8"/>
@@ -31001,7 +31013,7 @@
       </c>
       <c r="AG20" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH20" s="32">
         <f t="shared" si="8"/>
@@ -31326,7 +31338,7 @@
       </c>
       <c r="Y23" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z23" s="1">
         <v>1</v>
@@ -31469,7 +31481,7 @@
       </c>
       <c r="AG24" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH24" s="32">
         <f t="shared" si="8"/>
@@ -31508,7 +31520,7 @@
       </c>
       <c r="I25" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -31560,7 +31572,7 @@
       </c>
       <c r="Y25" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z25" s="1">
         <v>0</v>
@@ -31586,7 +31598,7 @@
       </c>
       <c r="AG25" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH25" s="32">
         <f t="shared" si="8"/>
@@ -31677,7 +31689,7 @@
       </c>
       <c r="Y26" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z26" s="1">
         <v>1</v>
@@ -31794,7 +31806,7 @@
       </c>
       <c r="Y27" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z27" s="1">
         <v>1</v>
@@ -31820,7 +31832,7 @@
       </c>
       <c r="AG27" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH27" s="32">
         <f t="shared" si="8"/>
@@ -31976,7 +31988,7 @@
       </c>
       <c r="I29" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -32002,7 +32014,7 @@
       </c>
       <c r="Q29" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R29" s="28">
         <v>0</v>
@@ -32028,7 +32040,7 @@
       </c>
       <c r="Y29" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z29" s="1">
         <v>1</v>
@@ -32054,7 +32066,7 @@
       </c>
       <c r="AG29" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH29" s="32">
         <f t="shared" si="8"/>
@@ -32062,7 +32074,7 @@
       </c>
       <c r="AI29" s="32" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -32093,7 +32105,7 @@
       </c>
       <c r="I30" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -32119,7 +32131,7 @@
       </c>
       <c r="Q30" s="30" t="str">
         <f t="shared" si="3"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="R30" s="28">
         <v>1</v>
@@ -32171,7 +32183,7 @@
       </c>
       <c r="AG30" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="AH30" s="32">
         <f t="shared" si="8"/>
@@ -32262,7 +32274,7 @@
       </c>
       <c r="Y31" s="31" t="str">
         <f t="shared" si="5"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
       <c r="Z31" s="1">
         <v>1</v>
@@ -32533,7 +32545,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>3</v>
       </c>
@@ -32561,8 +32573,11 @@
         <f>SUM(G4:G33)</f>
         <v>18</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
+      <c r="H34" s="45">
+        <f>SUM(H4:H33)</f>
+        <v>116</v>
+      </c>
+      <c r="I34" s="60"/>
       <c r="J34" s="46">
         <f t="shared" ref="J34:O34" si="11">SUM(J4:J33)</f>
         <v>16</v>
@@ -32587,8 +32602,11 @@
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="80"/>
+      <c r="P34" s="46">
+        <f>SUM(P4:P33)</f>
+        <v>105</v>
+      </c>
+      <c r="Q34" s="61"/>
       <c r="R34" s="47">
         <f>SUM(R4:R33)</f>
         <v>19</v>
@@ -32613,8 +32631,11 @@
         <f>SUM(W4:W33)</f>
         <v>14</v>
       </c>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="80"/>
+      <c r="X34" s="47">
+        <f>SUM(X4:X33)</f>
+        <v>111</v>
+      </c>
+      <c r="Y34" s="61"/>
       <c r="Z34" s="45">
         <f>SUM(Z4:Z33)</f>
         <v>21</v>
@@ -32639,21 +32660,27 @@
         <f>SUM(AE4:AE33)</f>
         <v>17</v>
       </c>
-      <c r="AF34" s="73"/>
-      <c r="AG34" s="85"/>
-      <c r="AH34" s="85"/>
-      <c r="AI34" s="74"/>
+      <c r="AF34" s="45">
+        <f>SUM(AF4:AF33)</f>
+        <v>113</v>
+      </c>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="59">
+        <f>SUM(AH4:AH33)</f>
+        <v>445</v>
+      </c>
+      <c r="AI34" s="60"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
         <v>99</v>
       </c>
       <c r="B35" s="54">
-        <f>B34/$A$33</f>
+        <f t="shared" ref="B35:G35" si="14">B34/30</f>
         <v>0.7</v>
       </c>
       <c r="C35" s="54">
-        <f t="shared" ref="C35:G35" si="14">C34/$A$33</f>
+        <f t="shared" si="14"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="D35" s="54">
@@ -32672,10 +32699,13 @@
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="54">
+        <f>H34/(30*6)</f>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="I35" s="60"/>
       <c r="J35" s="56">
-        <f t="shared" ref="J35:O35" si="15">J34/$A$33</f>
+        <f t="shared" ref="J35:O35" si="15">J34/30</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="K35" s="56">
@@ -32698,10 +32728,13 @@
         <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="82"/>
+      <c r="P35" s="56">
+        <f>P34/(30*6)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q35" s="61"/>
       <c r="R35" s="57">
-        <f t="shared" ref="R35:W35" si="16">R34/$A$33</f>
+        <f t="shared" ref="R35:W35" si="16">R34/30</f>
         <v>0.6333333333333333</v>
       </c>
       <c r="S35" s="57">
@@ -32724,10 +32757,13 @@
         <f t="shared" si="16"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="82"/>
+      <c r="X35" s="57">
+        <f>X34/(30*6)</f>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="Y35" s="61"/>
       <c r="Z35" s="54">
-        <f t="shared" ref="Z35:AE35" si="17">Z34/$A$33</f>
+        <f t="shared" ref="Z35:AE35" si="17">Z34/30</f>
         <v>0.7</v>
       </c>
       <c r="AA35" s="54">
@@ -32750,104 +32786,106 @@
         <f t="shared" si="17"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="86"/>
-      <c r="AH35" s="86"/>
-      <c r="AI35" s="76"/>
+      <c r="AF35" s="54">
+        <f>AF34/(30*6)</f>
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="62">
+        <f>AH34/(30*24)</f>
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="AI35" s="60"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="77">
         <f>(B35+C35)/2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="68">
+      <c r="C36" s="77"/>
+      <c r="D36" s="77">
         <f>(D35+E35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="68">
+      <c r="E36" s="77"/>
+      <c r="F36" s="77">
         <f>(F35+G35)/2</f>
         <v>0.68333333333333335</v>
       </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="70">
+      <c r="G36" s="77"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="78">
         <f>(J35+K35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="70">
+      <c r="K36" s="78"/>
+      <c r="L36" s="78">
         <f>(L35+M35)/2</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="M36" s="71"/>
-      <c r="N36" s="70">
+      <c r="M36" s="78"/>
+      <c r="N36" s="78">
         <f>(N35+O35)/2</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="O36" s="71"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="88">
+      <c r="O36" s="78"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="80">
         <f>(R35+S35)/2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="S36" s="89"/>
-      <c r="T36" s="88">
+      <c r="S36" s="80"/>
+      <c r="T36" s="80">
         <f>(T35+U35)/2</f>
         <v>0.6</v>
       </c>
-      <c r="U36" s="89"/>
-      <c r="V36" s="88">
+      <c r="U36" s="80"/>
+      <c r="V36" s="80">
         <f>(V35+W35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="W36" s="89"/>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="68">
+      <c r="W36" s="80"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="77">
         <f>(Z35+AA35)/2</f>
         <v>0.78333333333333333</v>
       </c>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="68">
+      <c r="AA36" s="77"/>
+      <c r="AB36" s="77">
         <f>(AB35+AC35)/2</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="68">
+      <c r="AC36" s="77"/>
+      <c r="AD36" s="77">
         <f>(AD35+AE35)/2</f>
         <v>0.58333333333333326</v>
       </c>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="77"/>
-      <c r="AG36" s="87"/>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="78"/>
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="P34:Q36"/>
-    <mergeCell ref="X34:Y36"/>
-    <mergeCell ref="AF34:AI36"/>
+  <mergeCells count="30">
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="Z36:AA36"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="R1:Y1"/>
@@ -32872,26 +32910,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="48"/>
       <c r="C3" s="48" t="s">
         <v>14</v>
@@ -32900,7 +32938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
         <v>47</v>
       </c>
@@ -32913,7 +32951,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="48" t="s">
         <v>48</v>
       </c>
@@ -32926,7 +32964,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="48" t="s">
         <v>49</v>
       </c>
@@ -32939,14 +32977,14 @@
         <v>0.68333333333333335</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="103" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="49"/>
       <c r="C18" s="49" t="s">
         <v>14</v>
@@ -32955,7 +32993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
         <v>50</v>
       </c>
@@ -32968,7 +33006,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="50" t="s">
         <v>51</v>
       </c>
@@ -32981,7 +33019,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="s">
         <v>52</v>
       </c>
@@ -32994,14 +33032,14 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="106" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="108"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="99"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="51"/>
       <c r="C35" s="51" t="s">
         <v>14</v>
@@ -33010,7 +33048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>53</v>
       </c>
@@ -33023,7 +33061,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="52" t="s">
         <v>54</v>
       </c>
@@ -33036,7 +33074,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>55</v>
       </c>
@@ -33049,14 +33087,14 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="109" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="110"/>
-      <c r="D53" s="111"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="53"/>
       <c r="C54" s="53" t="s">
         <v>14</v>
@@ -33065,7 +33103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="50" t="s">
         <v>96</v>
       </c>
@@ -33078,7 +33116,7 @@
         <v>0.78333333333333333</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="50" t="s">
         <v>97</v>
       </c>
@@ -33091,7 +33129,7 @@
         <v>0.51666666666666661</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="50" t="s">
         <v>98</v>
       </c>
@@ -33117,30 +33155,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
       <c r="V2" s="1"/>
       <c r="W2" s="5" t="s">
         <v>5</v>
@@ -33152,7 +33191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -33181,14 +33220,14 @@
       </c>
       <c r="X3" s="11">
         <f>'Comparación Dimensiones'!$B$5</f>
-        <v>0.56666666666666665</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="Y3" s="11">
         <f>'Comparación Dimensiones'!$B$6</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -33205,7 +33244,7 @@
       </c>
       <c r="F4" s="20">
         <f>G4/$G$7</f>
-        <v>0.16</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="G4" s="1">
         <f>Postest!AL4</f>
@@ -33216,39 +33255,39 @@
       </c>
       <c r="W4" s="11">
         <f>'Comparación Dimensiones'!$F$4</f>
-        <v>0.16</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="X4" s="11">
         <f>'Comparación Dimensiones'!$F$5</f>
-        <v>0.28000000000000003</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="Y4" s="11">
         <f>'Comparación Dimensiones'!$F$6</f>
-        <v>0.56000000000000005</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="20">
         <f>C5/$C$7</f>
-        <v>0.56666666666666665</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C5" s="1">
         <f>Pretest!AM4</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="20">
         <f>G5/$G$7</f>
-        <v>0.28000000000000003</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="G5" s="1">
         <f>Postest!AM4</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>86</v>
@@ -33259,35 +33298,35 @@
       </c>
       <c r="X5" s="11">
         <f>'Comparación Dimensiones'!$B$16</f>
-        <v>0.6</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Y5" s="11">
         <f>'Comparación Dimensiones'!$B$17</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="20">
         <f>C6/$C$7</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C6" s="1">
         <f>Pretest!AN4</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="20">
         <f>G6/$G$7</f>
-        <v>0.56000000000000005</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="1">
         <f>Postest!AN5</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>87</v>
@@ -33298,20 +33337,20 @@
       </c>
       <c r="X6" s="11">
         <f>'Comparación Dimensiones'!$F$16</f>
-        <v>0.43333333333333335</v>
+        <v>0.6</v>
       </c>
       <c r="Y6" s="11">
         <f>'Comparación Dimensiones'!$F$17</f>
-        <v>0.46666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>SUM(B4:B6)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C4:C6)</f>
@@ -33326,7 +33365,7 @@
       </c>
       <c r="G7" s="1">
         <f>SUM(G4:G6)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>88</v>
@@ -33337,14 +33376,14 @@
       </c>
       <c r="X7" s="11">
         <f>'Comparación Dimensiones'!$B$27</f>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="Y7" s="11">
         <f>'Comparación Dimensiones'!$B$28</f>
-        <v>0.2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V8" s="3" t="s">
         <v>89</v>
       </c>
@@ -33354,14 +33393,14 @@
       </c>
       <c r="X8" s="11">
         <f>'Comparación Dimensiones'!$F$27</f>
-        <v>0.26666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y8" s="11">
         <f>'Comparación Dimensiones'!$F$28</f>
-        <v>0.6333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V9" s="3" t="s">
         <v>90</v>
       </c>
@@ -33371,14 +33410,14 @@
       </c>
       <c r="X9" s="11">
         <f>'Comparación Dimensiones'!$B$38</f>
-        <v>0.43333333333333335</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="Y9" s="11">
         <f>'Comparación Dimensiones'!$B$39</f>
-        <v>0.23333333333333334</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F10" s="21"/>
       <c r="V10" s="3" t="s">
         <v>91</v>
@@ -33389,14 +33428,14 @@
       </c>
       <c r="X10" s="11">
         <f>'Comparación Dimensiones'!$F$38</f>
-        <v>0.36666666666666664</v>
+        <v>0.7</v>
       </c>
       <c r="Y10" s="11">
         <f>'Comparación Dimensiones'!$F$39</f>
-        <v>0.6</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V11" s="6" t="s">
         <v>92</v>
       </c>
@@ -33413,7 +33452,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V12" s="6" t="s">
         <v>93</v>
       </c>
@@ -33423,23 +33462,23 @@
       </c>
       <c r="X12" s="11">
         <f>F49</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="Y12" s="11">
         <f>F50</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="112" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -33492,22 +33531,22 @@
       </c>
       <c r="B16" s="20">
         <f>C16/$C$18</f>
-        <v>0.6</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C16" s="1">
         <f>Pretest!$AM$5</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="20">
         <f>G16/$G$18</f>
-        <v>0.43333333333333335</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="1">
         <f>Postest!AM5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -33516,22 +33555,22 @@
       </c>
       <c r="B17" s="20">
         <f>C17/$C$18</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
       <c r="C17" s="1">
         <f>Pretest!$AN$5</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="20">
         <f>G17/$G$18</f>
-        <v>0.46666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="G17" s="1">
         <f>Postest!AN5</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -33558,16 +33597,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="112" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -33620,22 +33659,22 @@
       </c>
       <c r="B27" s="10">
         <f>C27/$C$29</f>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C27" s="1">
         <f>Pretest!$AM$6</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="20">
         <f>G27/$G$29</f>
-        <v>0.26666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G27" s="1">
         <f>Postest!AM6</f>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -33644,22 +33683,22 @@
       </c>
       <c r="B28" s="10">
         <f>C28/$C$29</f>
-        <v>0.2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C28" s="1">
         <f>Pretest!$AN$6</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="20">
         <f>G28/$G$29</f>
-        <v>0.6333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="G28" s="1">
         <f>Postest!AN6</f>
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -33686,16 +33725,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="112" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="114"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -33748,22 +33787,22 @@
       </c>
       <c r="B38" s="10">
         <f>C38/$C$29</f>
-        <v>0.43333333333333335</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C38" s="1">
         <f>Pretest!AM7</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="20">
         <f>G38/$G$29</f>
-        <v>0.36666666666666664</v>
+        <v>0.7</v>
       </c>
       <c r="G38" s="1">
         <f>Postest!AM7</f>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -33772,22 +33811,22 @@
       </c>
       <c r="B39" s="10">
         <f>C39/$C$29</f>
-        <v>0.23333333333333334</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C39" s="1">
         <f>Pretest!AN7</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="20">
         <f>G39/$G$29</f>
-        <v>0.6</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="G39" s="1">
         <f>Postest!AN7</f>
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -33814,18 +33853,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="112" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="114"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="105"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>15</v>
       </c>
@@ -33846,7 +33885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -33870,7 +33909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -33887,14 +33926,14 @@
       </c>
       <c r="F49" s="20">
         <f>G49/$G$29</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="G49" s="1">
         <f>Postest!AM8</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -33911,14 +33950,14 @@
       </c>
       <c r="F50" s="20">
         <f>G50/$G$29</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G50" s="1">
         <f>Postest!AN8</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
@@ -33940,6 +33979,124 @@
       <c r="G51" s="1">
         <f>SUM(G48:G50)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="63"/>
+      <c r="B59" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="66">
+        <f>Pretest!H35</f>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C60" s="66">
+        <f>Postest!H35</f>
+        <v>0.64444444444444449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="66">
+        <f>Pretest!P35</f>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="C61" s="66">
+        <f>Postest!P35</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="66">
+        <f>Pretest!X35</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C62" s="66">
+        <f>Postest!X35</f>
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="66">
+        <f>Pretest!AF35</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C63" s="66">
+        <f>Postest!AF35</f>
+        <v>0.62777777777777777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="63"/>
+      <c r="B71" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="66">
+        <f>Pretest!AH35</f>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="C72" s="66">
+        <f>Postest!AH35</f>
+        <v>0.61805555555555558</v>
       </c>
     </row>
   </sheetData>
@@ -33956,30 +34113,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -33998,7 +34155,7 @@
       </c>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -34015,7 +34172,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -34040,7 +34197,7 @@
         <v>14.833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -34065,7 +34222,7 @@
         <v>0.68829847397188892</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -34090,7 +34247,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -34115,7 +34272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -34140,7 +34297,7 @@
         <v>3.76996600490786</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -34165,7 +34322,7 @@
         <v>14.21264367816093</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -34190,7 +34347,7 @@
         <v>-0.17255398801539856</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -34215,7 +34372,7 @@
         <v>0.10151408213518009</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -34240,7 +34397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -34265,7 +34422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -34290,7 +34447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -34315,7 +34472,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -34340,7 +34497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -34353,7 +34510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -34366,7 +34523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -34379,7 +34536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -34392,7 +34549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -34405,7 +34562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -34418,7 +34575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -34431,7 +34588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -34444,7 +34601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -34457,7 +34614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -34470,7 +34627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -34483,7 +34640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -34496,7 +34653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -34509,7 +34666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -34522,7 +34679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -34535,7 +34692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -34559,24 +34716,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -34590,7 +34747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -34603,7 +34760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -34623,7 +34780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -34645,7 +34802,7 @@
         <v>14.833333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -34667,7 +34824,7 @@
         <v>14.21264367816093</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -34689,7 +34846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -34709,7 +34866,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -34729,7 +34886,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -34749,7 +34906,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -34769,7 +34926,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -34789,7 +34946,7 @@
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -34809,7 +34966,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -34829,7 +34986,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -34849,7 +35006,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -34862,7 +35019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -34875,7 +35032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -34888,7 +35045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -34904,7 +35061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -34921,7 +35078,7 @@
         <v>Hay un cambio significativo</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -34934,7 +35091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -34947,7 +35104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -34960,7 +35117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -34973,7 +35130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -34986,7 +35143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -34999,7 +35156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -35012,7 +35169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -35025,7 +35182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -35038,7 +35195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -35051,7 +35208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -35064,7 +35221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
